--- a/pkg/data-raw/internal_data/input_eum.xlsx
+++ b/pkg/data-raw/internal_data/input_eum.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trotsiuk/Documents/software/r3PG/r3PG/pkg/data-raw/internal_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF55773-B333-3E48-A6E2-44352E908BA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822658CE-9984-1741-B334-D56B17B12E7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24800" yWindow="560" windowWidth="25020" windowHeight="28120" xr2:uid="{61EEFE5B-6AE1-A641-A9AB-273DC4213F59}"/>
+    <workbookView xWindow="24800" yWindow="560" windowWidth="25020" windowHeight="28120" activeTab="1" xr2:uid="{61EEFE5B-6AE1-A641-A9AB-273DC4213F59}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
-    <sheet name="bias" sheetId="7" r:id="rId2"/>
+    <sheet name="sizeDist" sheetId="7" r:id="rId2"/>
     <sheet name="site" sheetId="2" r:id="rId3"/>
     <sheet name="species" sheetId="3" r:id="rId4"/>
     <sheet name="climate" sheetId="5" r:id="rId5"/>
@@ -845,7 +845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003E9A71-E1A2-2845-B4A9-990606FB2D91}">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1778,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB4F449-9DC8-E74B-BCC1-554BB33610F9}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
